--- a/excel/Country_Normalized.xlsx
+++ b/excel/Country_Normalized.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\ConferentionOrganisation\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\test\ConferentionOrganisation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1091,9 +1091,6 @@
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
     <t>Lao People's Democratic Republic</t>
   </si>
   <si>
@@ -1322,9 +1319,6 @@
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Saint Barthélemy</t>
-  </si>
-  <si>
     <t>Saint Martin (French Part)</t>
   </si>
   <si>
@@ -1502,9 +1496,6 @@
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Åland Islands</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
@@ -2298,6 +2289,15 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Curaсao</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
   </si>
 </sst>
 </file>
@@ -2683,28 +2683,28 @@
   <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D252" sqref="A2:D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>256</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
         <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,7 +2872,7 @@
         <v>262</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>263</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>265</v>
       </c>
       <c r="D16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,7 +2928,7 @@
         <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>267</v>
       </c>
       <c r="D18" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>268</v>
       </c>
       <c r="D19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>269</v>
       </c>
       <c r="D20" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>270</v>
       </c>
       <c r="D21" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
         <v>271</v>
       </c>
       <c r="D22" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>272</v>
       </c>
       <c r="D23" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,7 +3026,7 @@
         <v>273</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3040,7 +3040,7 @@
         <v>274</v>
       </c>
       <c r="D25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>275</v>
       </c>
       <c r="D26" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
         <v>276</v>
       </c>
       <c r="D27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
         <v>277</v>
       </c>
       <c r="D28" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>278</v>
       </c>
       <c r="D29" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
         <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>280</v>
       </c>
       <c r="D31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>282</v>
       </c>
       <c r="D33" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
         <v>283</v>
       </c>
       <c r="D34" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>284</v>
       </c>
       <c r="D35" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>286</v>
       </c>
       <c r="D37" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,7 +3222,7 @@
         <v>287</v>
       </c>
       <c r="D38" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>288</v>
       </c>
       <c r="D39" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>289</v>
       </c>
       <c r="D40" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
         <v>290</v>
       </c>
       <c r="D41" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,7 +3278,7 @@
         <v>291</v>
       </c>
       <c r="D42" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
         <v>292</v>
       </c>
       <c r="D43" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
         <v>293</v>
       </c>
       <c r="D44" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3320,7 +3320,7 @@
         <v>294</v>
       </c>
       <c r="D45" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
         <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>296</v>
       </c>
       <c r="D47" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,7 @@
         <v>297</v>
       </c>
       <c r="D48" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
         <v>298</v>
       </c>
       <c r="D49" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,7 +3390,7 @@
         <v>299</v>
       </c>
       <c r="D50" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
         <v>300</v>
       </c>
       <c r="D51" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
         <v>301</v>
       </c>
       <c r="D52" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,7 +3432,7 @@
         <v>302</v>
       </c>
       <c r="D53" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3446,7 +3446,7 @@
         <v>303</v>
       </c>
       <c r="D54" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>304</v>
       </c>
       <c r="D55" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>305</v>
       </c>
       <c r="D56" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,7 +3488,7 @@
         <v>306</v>
       </c>
       <c r="D57" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>307</v>
       </c>
       <c r="D58" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>308</v>
       </c>
       <c r="D59" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>309</v>
       </c>
       <c r="D60" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
         <v>310</v>
       </c>
       <c r="D61" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
         <v>311</v>
       </c>
       <c r="D62" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>312</v>
       </c>
       <c r="D63" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
         <v>313</v>
       </c>
       <c r="D64" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
         <v>314</v>
       </c>
       <c r="D65" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
         <v>315</v>
       </c>
       <c r="D66" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,7 +3642,7 @@
         <v>317</v>
       </c>
       <c r="D68" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>318</v>
       </c>
       <c r="D69" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,7 +3670,7 @@
         <v>319</v>
       </c>
       <c r="D70" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>320</v>
       </c>
       <c r="D71" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
         <v>321</v>
       </c>
       <c r="D72" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>322</v>
       </c>
       <c r="D73" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
         <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>324</v>
       </c>
       <c r="D75" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,7 +3754,7 @@
         <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3768,7 +3768,7 @@
         <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3782,7 +3782,7 @@
         <v>327</v>
       </c>
       <c r="D78" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,7 +3796,7 @@
         <v>328</v>
       </c>
       <c r="D79" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>329</v>
       </c>
       <c r="D80" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
         <v>330</v>
       </c>
       <c r="D81" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,7 +3838,7 @@
         <v>331</v>
       </c>
       <c r="D82" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,7 +3852,7 @@
         <v>332</v>
       </c>
       <c r="D83" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,7 +3866,7 @@
         <v>333</v>
       </c>
       <c r="D84" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3880,7 +3880,7 @@
         <v>334</v>
       </c>
       <c r="D85" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>335</v>
       </c>
       <c r="D86" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,7 +3908,7 @@
         <v>336</v>
       </c>
       <c r="D87" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>337</v>
       </c>
       <c r="D88" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
         <v>338</v>
       </c>
       <c r="D89" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>339</v>
       </c>
       <c r="D90" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,7 +3978,7 @@
         <v>341</v>
       </c>
       <c r="D92" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
         <v>342</v>
       </c>
       <c r="D93" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,7 +4006,7 @@
         <v>343</v>
       </c>
       <c r="D94" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>344</v>
       </c>
       <c r="D95" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4048,7 +4048,7 @@
         <v>346</v>
       </c>
       <c r="D97" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,7 +4062,7 @@
         <v>347</v>
       </c>
       <c r="D98" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>348</v>
       </c>
       <c r="D99" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
         <v>349</v>
       </c>
       <c r="D100" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>350</v>
       </c>
       <c r="D101" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,7 +4118,7 @@
         <v>351</v>
       </c>
       <c r="D102" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,7 +4132,7 @@
         <v>352</v>
       </c>
       <c r="D103" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,7 +4146,7 @@
         <v>353</v>
       </c>
       <c r="D104" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4157,10 +4157,10 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>354</v>
+        <v>754</v>
       </c>
       <c r="D105" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4171,10 +4171,10 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D106" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,10 +4185,10 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D107" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,10 +4199,10 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,10 +4213,10 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D109" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,10 +4227,10 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D110" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4241,10 +4241,10 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D111" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4255,10 +4255,10 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D112" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4269,10 +4269,10 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D113" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4283,10 +4283,10 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D114" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4297,10 +4297,10 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D115" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,10 +4311,10 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,10 +4325,10 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D117" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,10 +4339,10 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D118" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D119" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4367,10 +4367,10 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D120" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,10 +4381,10 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D121" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,10 +4395,10 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D122" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,10 +4409,10 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D123" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4423,10 +4423,10 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D124" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,10 +4437,10 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D125" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4451,10 +4451,10 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D126" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,10 +4465,10 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D127" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,10 +4479,10 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D128" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,10 +4493,10 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D129" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D130" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4521,10 +4521,10 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D131" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4535,10 +4535,10 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D132" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,10 +4549,10 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D133" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,10 +4563,10 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D134" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4577,10 +4577,10 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D135" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4591,10 +4591,10 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D136" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,10 +4605,10 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D137" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4619,10 +4619,10 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D138" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4633,10 +4633,10 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D139" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4647,10 +4647,10 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D140" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D141" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4675,10 +4675,10 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D142" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4689,10 +4689,10 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D143" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4703,10 +4703,10 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D144" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4717,10 +4717,10 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D145" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4731,10 +4731,10 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D146" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4745,10 +4745,10 @@
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D147" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4759,10 +4759,10 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D148" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,10 +4773,10 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D149" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,10 +4787,10 @@
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D150" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4801,10 +4801,10 @@
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D151" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,10 +4815,10 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D152" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,10 +4829,10 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D153" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,10 +4843,10 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D154" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,10 +4857,10 @@
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D155" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,10 +4871,10 @@
         <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D156" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4885,10 +4885,10 @@
         <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D157" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,10 +4899,10 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D158" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,10 +4913,10 @@
         <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D159" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,10 +4927,10 @@
         <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D160" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,10 +4941,10 @@
         <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D161" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4955,10 +4955,10 @@
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D162" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,10 +4969,10 @@
         <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D163" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4983,10 +4983,10 @@
         <v>162</v>
       </c>
       <c r="C164" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D164" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,10 +4997,10 @@
         <v>163</v>
       </c>
       <c r="C165" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D165" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,10 +5011,10 @@
         <v>164</v>
       </c>
       <c r="C166" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D166" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,10 +5025,10 @@
         <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D167" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5039,10 +5039,10 @@
         <v>166</v>
       </c>
       <c r="C168" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D168" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5053,10 +5053,10 @@
         <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D169" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,10 +5067,10 @@
         <v>168</v>
       </c>
       <c r="C170" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D170" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5081,10 +5081,10 @@
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D171" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,10 +5095,10 @@
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D172" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,10 +5109,10 @@
         <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D173" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5123,10 +5123,10 @@
         <v>172</v>
       </c>
       <c r="C174" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D174" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,10 @@
         <v>173</v>
       </c>
       <c r="C175" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D175" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,10 +5151,10 @@
         <v>174</v>
       </c>
       <c r="C176" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D176" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,10 +5165,10 @@
         <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D177" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,10 +5179,10 @@
         <v>176</v>
       </c>
       <c r="C178" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D178" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5193,10 +5193,10 @@
         <v>177</v>
       </c>
       <c r="C179" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D179" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,10 +5207,10 @@
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D180" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5221,10 +5221,10 @@
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D181" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,10 +5235,10 @@
         <v>180</v>
       </c>
       <c r="C182" t="s">
-        <v>431</v>
+        <v>755</v>
       </c>
       <c r="D182" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,10 +5249,10 @@
         <v>181</v>
       </c>
       <c r="C183" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D183" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,10 +5263,10 @@
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D184" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5277,10 +5277,10 @@
         <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D185" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5291,10 +5291,10 @@
         <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D186" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,10 +5305,10 @@
         <v>185</v>
       </c>
       <c r="C187" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D187" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,10 +5319,10 @@
         <v>186</v>
       </c>
       <c r="C188" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D188" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5333,10 +5333,10 @@
         <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D189" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5347,10 +5347,10 @@
         <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D190" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5361,10 +5361,10 @@
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D191" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,10 +5375,10 @@
         <v>190</v>
       </c>
       <c r="C192" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D192" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5389,10 +5389,10 @@
         <v>191</v>
       </c>
       <c r="C193" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D193" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5403,10 +5403,10 @@
         <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D194" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,10 +5417,10 @@
         <v>193</v>
       </c>
       <c r="C195" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D195" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5431,10 +5431,10 @@
         <v>194</v>
       </c>
       <c r="C196" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D196" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,10 +5445,10 @@
         <v>195</v>
       </c>
       <c r="C197" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D197" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5459,10 +5459,10 @@
         <v>196</v>
       </c>
       <c r="C198" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D198" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,10 +5473,10 @@
         <v>197</v>
       </c>
       <c r="C199" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D199" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,10 +5487,10 @@
         <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D200" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,10 +5501,10 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D201" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5515,10 +5515,10 @@
         <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D202" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,10 +5529,10 @@
         <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D203" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5543,10 +5543,10 @@
         <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D204" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,10 +5557,10 @@
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D205" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5571,10 +5571,10 @@
         <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D206" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,10 +5585,10 @@
         <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D207" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5599,10 +5599,10 @@
         <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D208" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,10 +5613,10 @@
         <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D209" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,10 +5627,10 @@
         <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D210" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,10 +5641,10 @@
         <v>209</v>
       </c>
       <c r="C211" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D211" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5655,10 +5655,10 @@
         <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D212" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5669,10 +5669,10 @@
         <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D213" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,10 +5683,10 @@
         <v>212</v>
       </c>
       <c r="C214" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D214" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5697,10 +5697,10 @@
         <v>213</v>
       </c>
       <c r="C215" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D215" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,10 +5711,10 @@
         <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D216" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,10 +5725,10 @@
         <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D217" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,10 +5739,10 @@
         <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D218" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5753,10 +5753,10 @@
         <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D219" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5767,10 +5767,10 @@
         <v>218</v>
       </c>
       <c r="C220" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D220" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,10 +5781,10 @@
         <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D221" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5795,10 +5795,10 @@
         <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D222" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,10 +5809,10 @@
         <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D223" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5823,10 +5823,10 @@
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D224" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,10 +5837,10 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D225" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,10 +5851,10 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D226" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,10 +5865,10 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D227" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5879,10 +5879,10 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D228" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5893,10 +5893,10 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D229" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,10 +5907,10 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D230" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,10 +5921,10 @@
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D231" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,10 +5935,10 @@
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D232" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,10 +5949,10 @@
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D233" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,10 +5963,10 @@
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D234" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,10 +5977,10 @@
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D235" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,10 +5991,10 @@
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D236" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6005,10 +6005,10 @@
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D237" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6019,10 +6019,10 @@
         <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D238" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6033,10 +6033,10 @@
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D239" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6047,10 +6047,10 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D240" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6061,10 +6061,10 @@
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D241" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6075,10 +6075,10 @@
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>491</v>
+        <v>756</v>
       </c>
       <c r="D242" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,10 +6089,10 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D243" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6103,10 +6103,10 @@
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D244" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6117,10 +6117,10 @@
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D245" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6131,10 +6131,10 @@
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D246" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,10 +6145,10 @@
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D247" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,10 +6159,10 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D248" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,10 +6173,10 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D249" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6187,10 +6187,10 @@
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D250" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,10 +6201,10 @@
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D251" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,10 +6215,10 @@
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D252" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
